--- a/24well_BoM-final.xlsx
+++ b/24well_BoM-final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrepina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1CCC5-FCA0-8F4A-83A1-AA98A1B5527F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAFCDC9-2879-2844-8C42-CE1025E3D235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t>Item</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>Power supply (24-well board)</t>
-  </si>
-  <si>
-    <t>18 Watt 12V 1500mA AC-DC High Reliability Industrial Wall Adapter 2.1mm Plug Level VI</t>
   </si>
   <si>
     <t>Power supply (96-well board)</t>
@@ -505,6 +502,15 @@
   </si>
   <si>
     <t>BILL OF MATERIALS 24-well illumination board</t>
+  </si>
+  <si>
+    <t>2225625</t>
+  </si>
+  <si>
+    <t>18 Watt 18V 1A AC-DC High Reliability Industrial Wall Adapter 2.1mm Plug Level VI</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/shop/ProductDisplay?catalogId=10001&amp;langId=-1&amp;storeId=10001&amp;productId=2225625</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C053B-29C0-2D40-9803-ED115129BC36}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,18 +1122,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1486,7 +1492,7 @@
       <c r="H15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1522,13 +1528,13 @@
     </row>
     <row r="17" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1544,10 +1550,10 @@
         <v>2.98</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1637,7 +1643,7 @@
         <v>79</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1882,13 +1888,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1906,13 +1912,13 @@
       <c r="H29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>63</v>
+      <c r="I29" s="33" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>142</v>
+      <c r="A30" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>31</v>
@@ -1934,7 +1940,7 @@
         <v>11.5</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="41" t="s">
         <v>63</v>
@@ -2126,12 +2132,12 @@
         <v>490.14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="3"/>
     </row>
@@ -2191,30 +2197,31 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" xr:uid="{36C49922-C22B-9147-8FF0-DC490136004F}"/>
-    <hyperlink ref="I29" r:id="rId2" xr:uid="{52702C0D-26A3-FF44-B17F-B61DCEC147BB}"/>
-    <hyperlink ref="I12" r:id="rId3" xr:uid="{EF099361-6A57-6B42-9E97-460232232992}"/>
-    <hyperlink ref="I31" r:id="rId4" xr:uid="{5C36562F-1007-D94C-8582-0C2FF0DBAD6A}"/>
-    <hyperlink ref="I18" r:id="rId5" xr:uid="{EB773DE6-A4E3-3545-AA81-CBFB4CD94639}"/>
-    <hyperlink ref="I19" r:id="rId6" xr:uid="{6E6438C1-DF46-CF4D-9FF9-8DCD1B91F0DA}"/>
-    <hyperlink ref="I22" r:id="rId7" xr:uid="{D561B136-1130-1544-B6CE-05D15C98CEE9}"/>
-    <hyperlink ref="I23" r:id="rId8" xr:uid="{8987FE81-7E7E-084E-905C-705D9BF16764}"/>
-    <hyperlink ref="I21" r:id="rId9" xr:uid="{38A78A60-AD12-CA4E-A820-C3485E1AD4A4}"/>
-    <hyperlink ref="I24" r:id="rId10" xr:uid="{200C46F4-C079-BD4D-AECA-D51277DEA130}"/>
-    <hyperlink ref="I25" r:id="rId11" xr:uid="{FFB2F4A3-5992-9247-BD90-1C0A4C847FB1}"/>
-    <hyperlink ref="I26" r:id="rId12" xr:uid="{2606808A-AD2A-AF4E-ADCD-BB2F7816FC5A}"/>
-    <hyperlink ref="I27" r:id="rId13" xr:uid="{D900CCE9-EDDF-C142-A94E-BDD27F3B5C1E}"/>
-    <hyperlink ref="I16" r:id="rId14" xr:uid="{FD9A3A5E-419C-6742-9DC6-1065594CE3D7}"/>
-    <hyperlink ref="B41" r:id="rId15" xr:uid="{AC291240-2D82-D34C-8B99-969A3E92489E}"/>
-    <hyperlink ref="I30" r:id="rId16" xr:uid="{96BB4F7C-E36F-B54C-A535-34D893000EAA}"/>
-    <hyperlink ref="I11" r:id="rId17" xr:uid="{6CB5508C-A41E-D840-914E-2FEF81D9A99E}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{0E1D059A-DFD7-164E-BE50-E2040D9704E9}"/>
-    <hyperlink ref="I17" r:id="rId19" xr:uid="{5C6F1041-1B68-E54B-BCA5-89CF009B38C6}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{EF099361-6A57-6B42-9E97-460232232992}"/>
+    <hyperlink ref="I31" r:id="rId3" xr:uid="{5C36562F-1007-D94C-8582-0C2FF0DBAD6A}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{EB773DE6-A4E3-3545-AA81-CBFB4CD94639}"/>
+    <hyperlink ref="I19" r:id="rId5" xr:uid="{6E6438C1-DF46-CF4D-9FF9-8DCD1B91F0DA}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{D561B136-1130-1544-B6CE-05D15C98CEE9}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{8987FE81-7E7E-084E-905C-705D9BF16764}"/>
+    <hyperlink ref="I21" r:id="rId8" xr:uid="{38A78A60-AD12-CA4E-A820-C3485E1AD4A4}"/>
+    <hyperlink ref="I24" r:id="rId9" xr:uid="{200C46F4-C079-BD4D-AECA-D51277DEA130}"/>
+    <hyperlink ref="I25" r:id="rId10" xr:uid="{FFB2F4A3-5992-9247-BD90-1C0A4C847FB1}"/>
+    <hyperlink ref="I26" r:id="rId11" xr:uid="{2606808A-AD2A-AF4E-ADCD-BB2F7816FC5A}"/>
+    <hyperlink ref="I27" r:id="rId12" xr:uid="{D900CCE9-EDDF-C142-A94E-BDD27F3B5C1E}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{FD9A3A5E-419C-6742-9DC6-1065594CE3D7}"/>
+    <hyperlink ref="B41" r:id="rId14" xr:uid="{AC291240-2D82-D34C-8B99-969A3E92489E}"/>
+    <hyperlink ref="I30" r:id="rId15" xr:uid="{96BB4F7C-E36F-B54C-A535-34D893000EAA}"/>
+    <hyperlink ref="I11" r:id="rId16" xr:uid="{6CB5508C-A41E-D840-914E-2FEF81D9A99E}"/>
+    <hyperlink ref="I20" r:id="rId17" xr:uid="{0E1D059A-DFD7-164E-BE50-E2040D9704E9}"/>
+    <hyperlink ref="I17" r:id="rId18" xr:uid="{5C6F1041-1B68-E54B-BCA5-89CF009B38C6}"/>
+    <hyperlink ref="I15" r:id="rId19" xr:uid="{72EFBEBF-899A-E448-B8E2-0403C3CCC95E}"/>
+    <hyperlink ref="I29" r:id="rId20" xr:uid="{26F07A09-3B83-3F48-B36F-BBEE489A2628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
